--- a/plots/xai-methods-by-year.xlsx
+++ b/plots/xai-methods-by-year.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B36783A5-6B22-434A-A7B8-3B5888784029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F6130-E7F4-43CE-8A2A-972E77D3E03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25065" yWindow="-20820" windowWidth="28800" windowHeight="15435" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="2235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xai-methods-by-year" sheetId="1" r:id="rId1"/>
     <sheet name="sorted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -224,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,6 +835,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8FAADC"/>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1130,19 +1148,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1176,11 +1194,11 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <f>SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F33" si="0">SUM(B2:E2)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1197,11 +1215,11 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1218,11 +1236,11 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1239,11 +1257,11 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1260,11 +1278,11 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1278,11 +1296,11 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1299,11 +1317,11 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <f>SUM(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1320,11 +1338,11 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f>SUM(B9:E9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1338,11 +1356,11 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1356,11 +1374,11 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <f>SUM(B11:E11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1371,11 +1389,11 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f>SUM(B12:E12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1386,11 +1404,11 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <f>SUM(B13:E13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1401,11 +1419,11 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f>SUM(B14:E14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1413,11 +1431,11 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f>SUM(B15:E15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1425,11 +1443,11 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f>SUM(B16:E16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1437,11 +1455,11 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f>SUM(B17:E17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1449,11 +1467,11 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f>SUM(B18:E18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1461,11 +1479,11 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f>SUM(B19:E19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1473,11 +1491,11 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>SUM(B20:E20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1485,11 +1503,11 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <f>SUM(B21:E21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1497,11 +1515,11 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f>SUM(B22:E22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1509,11 +1527,11 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <f>SUM(B23:E23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1521,11 +1539,11 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <f>SUM(B24:E24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1533,11 +1551,11 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f>SUM(B25:E25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1545,11 +1563,11 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f>SUM(B26:E26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1557,11 +1575,11 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <f>SUM(B27:E27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1569,11 +1587,11 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f>SUM(B28:E28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1581,11 +1599,11 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>SUM(B29:E29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1593,11 +1611,11 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f>SUM(B30:E30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1605,11 +1623,11 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f>SUM(B31:E31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1617,11 +1635,11 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f>SUM(B32:E32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1629,11 +1647,11 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f>SUM(B33:E33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1641,11 +1659,11 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f>SUM(B34:E34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F34:F62" si="1">SUM(B34:E34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1653,11 +1671,11 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f>SUM(B35:E35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1665,11 +1683,11 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <f>SUM(B36:E36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1677,11 +1695,11 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f>SUM(B37:E37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1689,11 +1707,11 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f>SUM(B38:E38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1701,11 +1719,11 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <f>SUM(B39:E39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1713,11 +1731,11 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <f>SUM(B40:E40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1725,11 +1743,11 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <f>SUM(B41:E41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1737,11 +1755,11 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <f>SUM(B42:E42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1749,11 +1767,11 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <f>SUM(B43:E43)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1761,11 +1779,11 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <f>SUM(B44:E44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1773,11 +1791,11 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <f>SUM(B45:E45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1785,11 +1803,11 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <f>SUM(B46:E46)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1797,11 +1815,11 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <f>SUM(B47:E47)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1809,11 +1827,11 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <f>SUM(B48:E48)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1821,11 +1839,11 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <f>SUM(B49:E49)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1833,11 +1851,11 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <f>SUM(B50:E50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1845,11 +1863,11 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <f>SUM(B51:E51)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1857,11 +1875,11 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <f>SUM(B52:E52)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1869,11 +1887,11 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <f>SUM(B53:E53)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1881,11 +1899,11 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <f>SUM(B54:E54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1893,11 +1911,11 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <f>SUM(B55:E55)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1905,11 +1923,11 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f>SUM(B56:E56)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1917,11 +1935,11 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <f>SUM(B57:E57)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1929,11 +1947,11 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <f>SUM(B58:E58)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1941,11 +1959,11 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <f>SUM(B59:E59)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1953,11 +1971,11 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <f>SUM(B60:E60)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1965,11 +1983,11 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <f>SUM(B61:E61)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1977,11 +1995,11 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <f>SUM(B62:E62)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2015,21 +2033,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="235" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>63</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
@@ -2109,7 +2127,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2227,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>65</v>
       </c>
@@ -2287,18 +2305,114 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <conditionalFormatting sqref="C2:F12">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A346E97B-51DC-4262-88DE-13061D90F06D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{266390C4-FDCC-406F-AFDB-B356C442C228}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1191D83-6CB0-41C6-B748-ED4297AC0C22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0DC073BF-614F-403A-9A72-71546A205ADD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0858B8A1-A3C3-44D5-8169-8AD4E9BDC4EC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF4472C4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4431B6DB-BF67-4F6F-9A38-DDD690005E2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF4472C4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5723C80C-3B84-42A9-9402-BCD014A0C965}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF8FAADC"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{419B257D-AFC0-4B53-A6E4-C42FFB995BE9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FF8FAADC"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A346E97B-51DC-4262-88DE-13061D90F06D}</x14:id>
+          <x14:id>{6649F5BB-794F-478B-826E-871473B59858}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2317,6 +2431,70 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{266390C4-FDCC-406F-AFDB-B356C442C228}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E1191D83-6CB0-41C6-B748-ED4297AC0C22}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0DC073BF-614F-403A-9A72-71546A205ADD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0858B8A1-A3C3-44D5-8169-8AD4E9BDC4EC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4431B6DB-BF67-4F6F-9A38-DDD690005E2E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5723C80C-3B84-42A9-9402-BCD014A0C965}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{419B257D-AFC0-4B53-A6E4-C42FFB995BE9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{6649F5BB-794F-478B-826E-871473B59858}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C2:F12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
